--- a/uploads/APD01_paper.xlsx
+++ b/uploads/APD01_paper.xlsx
@@ -2549,7 +2549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,22 +2560,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>사번</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>접근권한ID</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>퇴직일</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>시스템ID</t>
+          <t>생성일자</t>
         </is>
       </c>
     </row>
